--- a/data/minfin/5_questions.xlsx
+++ b/data/minfin/5_questions.xlsx
@@ -185,9 +185,6 @@
     <t>Исполнительные документы, выданные на основании судебных актов по искам к Российской Федерации перечисленным в пункте 2 статьи 242.2 Бюджетного кодекса Российской Федерации, а также иные документы, указанные в пункте 2 статьи 242.1 Бюджетного кодекса Российской Федерации, направляются в Минфин России по адресу: ул. Ильинка, д. 9, г. Москва, 109097</t>
   </si>
   <si>
-    <t>На Яндекс карте: ул. Ильинка, д. 9, г. Москва, 109097</t>
-  </si>
-  <si>
     <t>http://bit.ly/2rdwrMZ</t>
   </si>
   <si>
@@ -229,12 +226,15 @@
       <t xml:space="preserve"> направить в Минфин России</t>
     </r>
   </si>
+  <si>
+    <t>На Яндекс карте: ул. Ильинка, д. 9, г. Москва, 109097</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +271,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -313,6 +319,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N4" sqref="N1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -741,7 +750,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
@@ -770,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>34</v>
@@ -799,7 +808,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
@@ -826,7 +835,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>45</v>
@@ -849,13 +858,13 @@
         <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/5_questions.xlsx
+++ b/data/minfin/5_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,16 +10,41 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="N8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Темным цветом отметили поля, в которых были произведены изменения. В частности разделительный символ для множественных значений с запятой заменен на точку с запятой</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t>question</t>
   </si>
@@ -30,6 +55,15 @@
     <t>full_answer</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Краткий ответ на вопрос</t>
+  </si>
+  <si>
+    <t>Полный ответ на вопрос</t>
+  </si>
+  <si>
     <t>key_words</t>
   </si>
   <si>
@@ -39,32 +73,98 @@
     <t>picture</t>
   </si>
   <si>
+    <t>Ключевые слова через запятую</t>
+  </si>
+  <si>
+    <t>Ссылка, если есть</t>
+  </si>
+  <si>
+    <t>Название картинки</t>
+  </si>
+  <si>
+    <t>Поле</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Как ключевые слова нужно использовать не только те, которые встречаются в вопросе или ответе, но и синонимы для них. Общее правило: чем больше ключевых слов, тем лучше.</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>Порядковый номер вопроса</t>
+  </si>
+  <si>
+    <t>Вопрос от минфина</t>
+  </si>
+  <si>
+    <t>Описание столбцов таблицы</t>
+  </si>
+  <si>
     <t>document</t>
   </si>
   <si>
+    <t>Название документа</t>
+  </si>
+  <si>
     <t>link_name</t>
   </si>
   <si>
+    <t>Название ссылки, если есть ссылка</t>
+  </si>
+  <si>
     <t>parameterized</t>
   </si>
   <si>
+    <t>Параметризованность</t>
+  </si>
+  <si>
     <t>picture_caption</t>
   </si>
   <si>
     <t>document_caption</t>
   </si>
   <si>
+    <t>Подпись к картинке</t>
+  </si>
+  <si>
+    <t>Подпись к документу</t>
+  </si>
+  <si>
+    <t>Если есть картинка (например, " Потоки денежный средств между федеральными ведомствами"). Если картинок несколько, то перечислись все подписи через ";".</t>
+  </si>
+  <si>
+    <t>Если есть, то название картинки, включая формат. Картинки лучше называть просто цифрами в соответствии с порядковым номером вопроса. Например, "15.jpg" для 15 вопроса. Если одному вопросу соответствует несколько картинок, то "15_1.jpg; 15_2.jpg" и т.д. Название картинок в формате цифр допустимо, так как их название не отражается в сообщении пользователю, показывается только picture_caption.</t>
+  </si>
+  <si>
+    <t>Например, для ссылки http://www.cbr.ru/, link_name будет "Сайт  Центрального Банка Российской Федерации". Если ссылок несколько, то названия сайтов через точку с запятой для этих ссылок.</t>
+  </si>
+  <si>
+    <t>Если есть, то полная ссылка. Если нет, то ничего. Если несколько, то просто через точку с запятой</t>
+  </si>
+  <si>
+    <t>Если есть документ (например, "Схема работы федерального казначейства"). Если документов несколько, то подписи для них через точку с запятой</t>
+  </si>
+  <si>
+    <t>Если есть, то название документов лучше сделать осмысленным (не номером в отличии от картинок, так как пользователь видит как имя документа, так и подпись к нему). Для названия документа использовать исключительно английские буквы, например, "federalnoe kaznachestvo.pdf". Также в названии не использовать знаков пунктуации кроме точки для отделения формата. Если одному вопросу соответствует несколько документов, то по аналогии с выше перечисленным указать их названия через точку с запятой.</t>
+  </si>
+  <si>
+    <t>Если запрос параметризованный, то в столбце должна быть 1, в ином случае ничего. 
+В самом запросе вместо параметра написать "*". Ответ к вопросу: "параметр1: ответ1; параметр2: ответ2". Используйте пожалуйста именно этот знак "*", а не "____"</t>
+  </si>
+  <si>
+    <t>Если полного ответа нет на вопрос, то смело оставляйте это поле пустым</t>
+  </si>
+  <si>
     <t>5.1</t>
   </si>
   <si>
     <t>Что такое иммунитет бюджетов бюджетной системы Российской Федерации?</t>
-  </si>
-  <si>
-    <t>Согласно пункту 1 статьи 239 Бюджетного кодекса Российской Федерации иммунитет бюджетов бюджетной системы Российской Федерации представляет собой правовой режим, при котором обращение взыскания на средства бюджетов бюджетной системы Российской Федерации осуществляется только на основании судебного акта.
-Иммунитет бюджета применяется не в зависимости от вида счета (бюджетный, расчетный), а в зависимости от вида средств, находящихся на том или ином счете клиента.</t>
   </si>
   <si>
     <t>Иммунитет бюджетов, Бюджеты бюджетной системы</t>
@@ -179,12 +279,12 @@
     <t>По какому адресу нужно направлять исполнительные документы в Минфин России?</t>
   </si>
   <si>
-    <t>Исполнительные документы направляются в Минфин России по адресу: ул. Ильинка, д. 9, г. Москва, 109097</t>
-  </si>
-  <si>
     <t>Исполнительные документы, выданные на основании судебных актов по искам к Российской Федерации перечисленным в пункте 2 статьи 242.2 Бюджетного кодекса Российской Федерации, а также иные документы, указанные в пункте 2 статьи 242.1 Бюджетного кодекса Российской Федерации, направляются в Минфин России по адресу: ул. Ильинка, д. 9, г. Москва, 109097</t>
   </si>
   <si>
+    <t>На Яндекс карте: ул. Ильинка, д. 9, г. Москва, 109097</t>
+  </si>
+  <si>
     <t>http://bit.ly/2rdwrMZ</t>
   </si>
   <si>
@@ -198,43 +298,47 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">судебный акт, ход исполнения, информация, сеть Интернет, Минфин России, </t>
+      <t xml:space="preserve">Согласно пункту 1 статьи 239 Бюджетного кодекса Российской Федерации </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>иммунитет бюджетов бюджетной системы Российской Федерации</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>ход исполнения судебного акта</t>
+      <t xml:space="preserve"> представляет собой правовой режим, при котором обращение взыскания на средства бюджетов бюджетной системы Российской Федерации осуществляется только на основании судебного акта.
+Иммунитет бюджета применяется не в зависимости от вида счета (бюджетный, расчетный), а в зависимости от вида средств, находящихся на том или ином счете клиента.</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Адрес, направление документов, отправление,  исполнительные документы,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> направить в Минфин России</t>
-    </r>
-  </si>
-  <si>
-    <t>На Яндекс карте: ул. Ильинка, д. 9, г. Москва, 109097</t>
+    <t>Исполнительные документы направляются в Минфин России по адресу: город Москва, улица Ильинка, дом девять</t>
+  </si>
+  <si>
+    <t>судебный акт, ход исполнения, информация, сеть Интернет, Минфин России, ход исполнения судебного акта</t>
+  </si>
+  <si>
+    <t>Адрес, направление документов, отправление,  исполнительные документы, направить в Минфин России</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +369,16 @@
       <charset val="204"/>
     </font>
     <font>
+      <i/>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -277,13 +389,69 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -298,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -309,6 +477,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -318,10 +507,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -630,27 +825,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="67" style="3" customWidth="1"/>
-    <col min="5" max="5" width="59.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="116.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" style="17" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
@@ -659,12 +854,15 @@
     <col min="11" max="11" width="19.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="24.140625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="14" width="18.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="81.85546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="18.75">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -675,199 +873,334 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" ht="110.25">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="267.75">
+      <c r="A3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="N3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="315">
+      <c r="A4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="157.5">
+      <c r="A5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="6" spans="1:16" ht="236.25">
+      <c r="A6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="110.25">
+      <c r="A7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="78.75">
+      <c r="A8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="31.5">
+      <c r="N9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="47.25">
+      <c r="N10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="94.5">
+      <c r="N11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="O11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="P11" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="31.5">
+      <c r="N12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="110.25">
+      <c r="N13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="O13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="P13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="78.75">
+      <c r="N14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="O14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="P14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
     <hyperlink ref="G6" r:id="rId2"/>
@@ -876,5 +1209,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/data/minfin/5_questions.xlsx
+++ b/data/minfin/5_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,41 +10,16 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Автор</author>
-  </authors>
-  <commentList>
-    <comment ref="N8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Темным цветом отметили поля, в которых были произведены изменения. В частности разделительный символ для множественных значений с запятой заменен на точку с запятой</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>question</t>
   </si>
@@ -55,15 +30,6 @@
     <t>full_answer</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Краткий ответ на вопрос</t>
-  </si>
-  <si>
-    <t>Полный ответ на вопрос</t>
-  </si>
-  <si>
     <t>key_words</t>
   </si>
   <si>
@@ -73,92 +39,22 @@
     <t>picture</t>
   </si>
   <si>
-    <t>Ключевые слова через запятую</t>
-  </si>
-  <si>
-    <t>Ссылка, если есть</t>
-  </si>
-  <si>
-    <t>Название картинки</t>
-  </si>
-  <si>
-    <t>Поле</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Комментарий</t>
-  </si>
-  <si>
-    <t>Как ключевые слова нужно использовать не только те, которые встречаются в вопросе или ответе, но и синонимы для них. Общее правило: чем больше ключевых слов, тем лучше.</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>Порядковый номер вопроса</t>
-  </si>
-  <si>
-    <t>Вопрос от минфина</t>
-  </si>
-  <si>
-    <t>Описание столбцов таблицы</t>
-  </si>
-  <si>
     <t>document</t>
   </si>
   <si>
-    <t>Название документа</t>
-  </si>
-  <si>
     <t>link_name</t>
   </si>
   <si>
-    <t>Название ссылки, если есть ссылка</t>
-  </si>
-  <si>
     <t>parameterized</t>
   </si>
   <si>
-    <t>Параметризованность</t>
-  </si>
-  <si>
     <t>picture_caption</t>
   </si>
   <si>
     <t>document_caption</t>
-  </si>
-  <si>
-    <t>Подпись к картинке</t>
-  </si>
-  <si>
-    <t>Подпись к документу</t>
-  </si>
-  <si>
-    <t>Если есть картинка (например, " Потоки денежный средств между федеральными ведомствами"). Если картинок несколько, то перечислись все подписи через ";".</t>
-  </si>
-  <si>
-    <t>Если есть, то название картинки, включая формат. Картинки лучше называть просто цифрами в соответствии с порядковым номером вопроса. Например, "15.jpg" для 15 вопроса. Если одному вопросу соответствует несколько картинок, то "15_1.jpg; 15_2.jpg" и т.д. Название картинок в формате цифр допустимо, так как их название не отражается в сообщении пользователю, показывается только picture_caption.</t>
-  </si>
-  <si>
-    <t>Например, для ссылки http://www.cbr.ru/, link_name будет "Сайт  Центрального Банка Российской Федерации". Если ссылок несколько, то названия сайтов через точку с запятой для этих ссылок.</t>
-  </si>
-  <si>
-    <t>Если есть, то полная ссылка. Если нет, то ничего. Если несколько, то просто через точку с запятой</t>
-  </si>
-  <si>
-    <t>Если есть документ (например, "Схема работы федерального казначейства"). Если документов несколько, то подписи для них через точку с запятой</t>
-  </si>
-  <si>
-    <t>Если есть, то название документов лучше сделать осмысленным (не номером в отличии от картинок, так как пользователь видит как имя документа, так и подпись к нему). Для названия документа использовать исключительно английские буквы, например, "federalnoe kaznachestvo.pdf". Также в названии не использовать знаков пунктуации кроме точки для отделения формата. Если одному вопросу соответствует несколько документов, то по аналогии с выше перечисленным указать их названия через точку с запятой.</t>
-  </si>
-  <si>
-    <t>Если запрос параметризованный, то в столбце должна быть 1, в ином случае ничего. 
-В самом запросе вместо параметра написать "*". Ответ к вопросу: "параметр1: ответ1; параметр2: ответ2". Используйте пожалуйста именно этот знак "*", а не "____"</t>
-  </si>
-  <si>
-    <t>Если полного ответа нет на вопрос, то смело оставляйте это поле пустым</t>
   </si>
   <si>
     <t>5.1</t>
@@ -337,8 +233,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,40 +265,9 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -422,30 +287,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -466,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -475,27 +322,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -507,16 +333,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -825,27 +648,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="116.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="59.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" style="9" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
@@ -854,15 +677,12 @@
     <col min="11" max="11" width="19.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="24.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="81.85546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="18.75">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -873,334 +693,201 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>6</v>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="K4" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="110.25">
-      <c r="A2" s="12" t="s">
+    <row r="5" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>14</v>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="267.75">
-      <c r="A3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="17" t="s">
+    <row r="8" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="N3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" ht="315">
-      <c r="A4" s="12" t="s">
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" ht="157.5">
-      <c r="A5" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="236.25">
-      <c r="A6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="110.25">
-      <c r="A7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="78.75">
-      <c r="A8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="31.5">
-      <c r="N9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="47.25">
-      <c r="N10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="94.5">
-      <c r="N11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="31.5">
-      <c r="N12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="110.25">
-      <c r="N13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="78.75">
-      <c r="N14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="N1:P1"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
     <hyperlink ref="G6" r:id="rId2"/>
@@ -1209,6 +896,5 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/data/minfin/5_questions.xlsx
+++ b/data/minfin/5_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,16 +10,41 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="N8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Темным цветом отметили поля, в которых были произведены изменения. В частности разделительный символ для множественных значений с запятой заменен на точку с запятой</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t>question</t>
   </si>
@@ -30,6 +55,15 @@
     <t>full_answer</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Краткий ответ на вопрос</t>
+  </si>
+  <si>
+    <t>Полный ответ на вопрос</t>
+  </si>
+  <si>
     <t>key_words</t>
   </si>
   <si>
@@ -39,22 +73,92 @@
     <t>picture</t>
   </si>
   <si>
+    <t>Ключевые слова через запятую</t>
+  </si>
+  <si>
+    <t>Ссылка, если есть</t>
+  </si>
+  <si>
+    <t>Название картинки</t>
+  </si>
+  <si>
+    <t>Поле</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Как ключевые слова нужно использовать не только те, которые встречаются в вопросе или ответе, но и синонимы для них. Общее правило: чем больше ключевых слов, тем лучше.</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>Порядковый номер вопроса</t>
+  </si>
+  <si>
+    <t>Вопрос от минфина</t>
+  </si>
+  <si>
+    <t>Описание столбцов таблицы</t>
+  </si>
+  <si>
     <t>document</t>
   </si>
   <si>
+    <t>Название документа</t>
+  </si>
+  <si>
     <t>link_name</t>
   </si>
   <si>
+    <t>Название ссылки, если есть ссылка</t>
+  </si>
+  <si>
     <t>parameterized</t>
   </si>
   <si>
+    <t>Параметризованность</t>
+  </si>
+  <si>
     <t>picture_caption</t>
   </si>
   <si>
     <t>document_caption</t>
+  </si>
+  <si>
+    <t>Подпись к картинке</t>
+  </si>
+  <si>
+    <t>Подпись к документу</t>
+  </si>
+  <si>
+    <t>Если есть картинка (например, " Потоки денежный средств между федеральными ведомствами"). Если картинок несколько, то перечислись все подписи через ";".</t>
+  </si>
+  <si>
+    <t>Если есть, то название картинки, включая формат. Картинки лучше называть просто цифрами в соответствии с порядковым номером вопроса. Например, "15.jpg" для 15 вопроса. Если одному вопросу соответствует несколько картинок, то "15_1.jpg; 15_2.jpg" и т.д. Название картинок в формате цифр допустимо, так как их название не отражается в сообщении пользователю, показывается только picture_caption.</t>
+  </si>
+  <si>
+    <t>Например, для ссылки http://www.cbr.ru/, link_name будет "Сайт  Центрального Банка Российской Федерации". Если ссылок несколько, то названия сайтов через точку с запятой для этих ссылок.</t>
+  </si>
+  <si>
+    <t>Если есть, то полная ссылка. Если нет, то ничего. Если несколько, то просто через точку с запятой</t>
+  </si>
+  <si>
+    <t>Если есть документ (например, "Схема работы федерального казначейства"). Если документов несколько, то подписи для них через точку с запятой</t>
+  </si>
+  <si>
+    <t>Если есть, то название документов лучше сделать осмысленным (не номером в отличии от картинок, так как пользователь видит как имя документа, так и подпись к нему). Для названия документа использовать исключительно английские буквы, например, "federalnoe kaznachestvo.pdf". Также в названии не использовать знаков пунктуации кроме точки для отделения формата. Если одному вопросу соответствует несколько документов, то по аналогии с выше перечисленным указать их названия через точку с запятой.</t>
+  </si>
+  <si>
+    <t>Если запрос параметризованный, то в столбце должна быть 1, в ином случае ничего. 
+В самом запросе вместо параметра написать "*". Ответ к вопросу: "параметр1: ответ1; параметр2: ответ2". Используйте пожалуйста именно этот знак "*", а не "____"</t>
+  </si>
+  <si>
+    <t>Если полного ответа нет на вопрос, то смело оставляйте это поле пустым</t>
   </si>
   <si>
     <t>5.1</t>
@@ -233,8 +337,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,9 +369,40 @@
       <charset val="204"/>
     </font>
     <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -287,12 +422,30 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -313,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -324,6 +477,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -333,13 +507,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -648,27 +825,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="116.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="59.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" style="17" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
@@ -677,12 +854,15 @@
     <col min="11" max="11" width="19.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="24.140625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="14" width="18.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="81.85546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="18.75">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -693,201 +873,334 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" ht="110.25">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="267.75">
+      <c r="A3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="N3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="315">
+      <c r="A4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="157.5">
+      <c r="A5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="6" spans="1:16" ht="236.25">
+      <c r="A6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="110.25">
+      <c r="A7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="78.75">
+      <c r="A8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="31.5">
+      <c r="N9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="47.25">
+      <c r="N10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="94.5">
+      <c r="N11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="O11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="P11" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="31.5">
+      <c r="N12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="110.25">
+      <c r="N13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="315" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="O13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="P13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="78.75">
+      <c r="N14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="O14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="P14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
     <hyperlink ref="G6" r:id="rId2"/>
@@ -896,5 +1209,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/data/minfin/5_questions.xlsx
+++ b/data/minfin/5_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,41 +10,16 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Автор</author>
-  </authors>
-  <commentList>
-    <comment ref="N8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Темным цветом отметили поля, в которых были произведены изменения. В частности разделительный символ для множественных значений с запятой заменен на точку с запятой</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>question</t>
   </si>
@@ -55,15 +30,6 @@
     <t>full_answer</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Краткий ответ на вопрос</t>
-  </si>
-  <si>
-    <t>Полный ответ на вопрос</t>
-  </si>
-  <si>
     <t>key_words</t>
   </si>
   <si>
@@ -73,92 +39,22 @@
     <t>picture</t>
   </si>
   <si>
-    <t>Ключевые слова через запятую</t>
-  </si>
-  <si>
-    <t>Ссылка, если есть</t>
-  </si>
-  <si>
-    <t>Название картинки</t>
-  </si>
-  <si>
-    <t>Поле</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Комментарий</t>
-  </si>
-  <si>
-    <t>Как ключевые слова нужно использовать не только те, которые встречаются в вопросе или ответе, но и синонимы для них. Общее правило: чем больше ключевых слов, тем лучше.</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>Порядковый номер вопроса</t>
-  </si>
-  <si>
-    <t>Вопрос от минфина</t>
-  </si>
-  <si>
-    <t>Описание столбцов таблицы</t>
-  </si>
-  <si>
     <t>document</t>
   </si>
   <si>
-    <t>Название документа</t>
-  </si>
-  <si>
     <t>link_name</t>
   </si>
   <si>
-    <t>Название ссылки, если есть ссылка</t>
-  </si>
-  <si>
     <t>parameterized</t>
   </si>
   <si>
-    <t>Параметризованность</t>
-  </si>
-  <si>
     <t>picture_caption</t>
   </si>
   <si>
     <t>document_caption</t>
-  </si>
-  <si>
-    <t>Подпись к картинке</t>
-  </si>
-  <si>
-    <t>Подпись к документу</t>
-  </si>
-  <si>
-    <t>Если есть картинка (например, " Потоки денежный средств между федеральными ведомствами"). Если картинок несколько, то перечислись все подписи через ";".</t>
-  </si>
-  <si>
-    <t>Если есть, то название картинки, включая формат. Картинки лучше называть просто цифрами в соответствии с порядковым номером вопроса. Например, "15.jpg" для 15 вопроса. Если одному вопросу соответствует несколько картинок, то "15_1.jpg; 15_2.jpg" и т.д. Название картинок в формате цифр допустимо, так как их название не отражается в сообщении пользователю, показывается только picture_caption.</t>
-  </si>
-  <si>
-    <t>Например, для ссылки http://www.cbr.ru/, link_name будет "Сайт  Центрального Банка Российской Федерации". Если ссылок несколько, то названия сайтов через точку с запятой для этих ссылок.</t>
-  </si>
-  <si>
-    <t>Если есть, то полная ссылка. Если нет, то ничего. Если несколько, то просто через точку с запятой</t>
-  </si>
-  <si>
-    <t>Если есть документ (например, "Схема работы федерального казначейства"). Если документов несколько, то подписи для них через точку с запятой</t>
-  </si>
-  <si>
-    <t>Если есть, то название документов лучше сделать осмысленным (не номером в отличии от картинок, так как пользователь видит как имя документа, так и подпись к нему). Для названия документа использовать исключительно английские буквы, например, "federalnoe kaznachestvo.pdf". Также в названии не использовать знаков пунктуации кроме точки для отделения формата. Если одному вопросу соответствует несколько документов, то по аналогии с выше перечисленным указать их названия через точку с запятой.</t>
-  </si>
-  <si>
-    <t>Если запрос параметризованный, то в столбце должна быть 1, в ином случае ничего. 
-В самом запросе вместо параметра написать "*". Ответ к вопросу: "параметр1: ответ1; параметр2: ответ2". Используйте пожалуйста именно этот знак "*", а не "____"</t>
-  </si>
-  <si>
-    <t>Если полного ответа нет на вопрос, то смело оставляйте это поле пустым</t>
   </si>
   <si>
     <t>5.1</t>
@@ -337,8 +233,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,40 +265,9 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -422,30 +287,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -466,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -475,27 +322,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -507,16 +333,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -825,27 +648,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N2" sqref="N1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="116.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="59.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" style="9" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
@@ -854,15 +677,12 @@
     <col min="11" max="11" width="19.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="24.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="81.85546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="18.75">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -873,334 +693,201 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>6</v>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="K4" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="110.25">
-      <c r="A2" s="12" t="s">
+    <row r="5" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>14</v>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="267.75">
-      <c r="A3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="17" t="s">
+    <row r="8" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="N3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" ht="315">
-      <c r="A4" s="12" t="s">
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" ht="157.5">
-      <c r="A5" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="236.25">
-      <c r="A6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="110.25">
-      <c r="A7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="78.75">
-      <c r="A8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="31.5">
-      <c r="N9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="47.25">
-      <c r="N10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="94.5">
-      <c r="N11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="31.5">
-      <c r="N12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="110.25">
-      <c r="N13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="78.75">
-      <c r="N14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="N1:P1"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
     <hyperlink ref="G6" r:id="rId2"/>
@@ -1209,6 +896,5 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/data/minfin/5_questions.xlsx
+++ b/data/minfin/5_questions.xlsx
@@ -185,12 +185,6 @@
   </si>
   <si>
     <t>Судебные акты, исполняет Минфин России</t>
-  </si>
-  <si>
-    <t>Предъявить  документы в Минифин, направить документы в Минифин, предоставить документы в Минифин, документы для исполнения судебного акта</t>
-  </si>
-  <si>
-    <t>Срок исполнения, исполнение судебного акта Минфином России</t>
   </si>
   <si>
     <r>
@@ -224,17 +218,23 @@
     <t>Исполнительные документы направляются в Минфин России по адресу: город Москва, улица Ильинка, дом девять</t>
   </si>
   <si>
-    <t>судебный акт, ход исполнения, информация, сеть Интернет, Минфин России, ход исполнения судебного акта</t>
-  </si>
-  <si>
     <t>Адрес, направление документов, отправление,  исполнительные документы, направить в Минфин России</t>
+  </si>
+  <si>
+    <t>Cудебный акт, ход исполнения, информация, сеть Интернет, Минфин России</t>
+  </si>
+  <si>
+    <t>Времени требуется, Срок исполнения, исполнение судебного акта, Минфин России</t>
+  </si>
+  <si>
+    <t>Какие, документы, Минфин, направить, предоставить, исполнения, судебного акта</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +286,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -313,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -340,6 +347,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -658,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N2" sqref="N1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -729,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>14</v>
@@ -796,8 +806,8 @@
       <c r="D5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>52</v>
+      <c r="E5" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>33</v>
@@ -825,8 +835,8 @@
       <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>53</v>
+      <c r="E6" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>39</v>
@@ -854,8 +864,8 @@
       <c r="D7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>56</v>
+      <c r="E7" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>44</v>
@@ -872,13 +882,13 @@
         <v>47</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>49</v>

--- a/data/minfin/5_questions.xlsx
+++ b/data/minfin/5_questions.xlsx
@@ -215,9 +215,6 @@
     </r>
   </si>
   <si>
-    <t>Исполнительные документы направляются в Минфин России по адресу: город Москва, улица Ильинка, дом девять</t>
-  </si>
-  <si>
     <t>Адрес, направление документов, отправление,  исполнительные документы, направить в Минфин России</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>Какие, документы, Минфин, направить, предоставить, исполнения, судебного акта</t>
+  </si>
+  <si>
+    <t>Исполнительные документы направляются в Минфин России по адресу: город Москва, улица Ильинка, дом 9</t>
   </si>
 </sst>
 </file>
@@ -294,18 +294,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -320,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -340,9 +334,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -350,6 +341,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -668,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -678,7 +675,7 @@
     <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="116.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="59.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
@@ -703,7 +700,7 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -741,7 +738,7 @@
       <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1"/>
@@ -759,7 +756,7 @@
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="1"/>
@@ -777,7 +774,7 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -806,8 +803,8 @@
       <c r="D5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>57</v>
+      <c r="E5" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>33</v>
@@ -835,8 +832,8 @@
       <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>56</v>
+      <c r="E6" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>39</v>
@@ -861,11 +858,11 @@
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>55</v>
+      <c r="E7" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>44</v>
@@ -881,14 +878,14 @@
       <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>53</v>
+      <c r="C8" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>54</v>
+      <c r="E8" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>49</v>

--- a/data/minfin/5_questions.xlsx
+++ b/data/minfin/5_questions.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t>question</t>
   </si>
@@ -30,6 +31,15 @@
     <t>full_answer</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Краткий ответ на вопрос</t>
+  </si>
+  <si>
+    <t>Полный ответ на вопрос</t>
+  </si>
+  <si>
     <t>key_words</t>
   </si>
   <si>
@@ -39,22 +49,92 @@
     <t>picture</t>
   </si>
   <si>
+    <t>Ключевые слова через запятую</t>
+  </si>
+  <si>
+    <t>Ссылка, если есть</t>
+  </si>
+  <si>
+    <t>Название картинки</t>
+  </si>
+  <si>
+    <t>Поле</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Как ключевые слова нужно использовать не только те, которые встречаются в вопросе или ответе, но и синонимы для них. Общее правило: чем больше ключевых слов, тем лучше.</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>Порядковый номер вопроса</t>
+  </si>
+  <si>
+    <t>Вопрос от минфина</t>
+  </si>
+  <si>
+    <t>Описание столбцов таблицы</t>
+  </si>
+  <si>
     <t>document</t>
   </si>
   <si>
+    <t>Название документа</t>
+  </si>
+  <si>
     <t>link_name</t>
   </si>
   <si>
+    <t>Название ссылки, если есть ссылка</t>
+  </si>
+  <si>
     <t>parameterized</t>
   </si>
   <si>
+    <t>Параметризованность</t>
+  </si>
+  <si>
     <t>picture_caption</t>
   </si>
   <si>
     <t>document_caption</t>
+  </si>
+  <si>
+    <t>Подпись к картинке</t>
+  </si>
+  <si>
+    <t>Подпись к документу</t>
+  </si>
+  <si>
+    <t>Если есть картинка (например, " Потоки денежный средств между федеральными ведомствами"). Если картинок несколько, то перечислись все подписи через ";".</t>
+  </si>
+  <si>
+    <t>Если есть, то название картинки, включая формат. Картинки лучше называть просто цифрами в соответствии с порядковым номером вопроса. Например, "15.jpg" для 15 вопроса. Если одному вопросу соответствует несколько картинок, то "15_1.jpg; 15_2.jpg" и т.д. Название картинок в формате цифр допустимо, так как их название не отражается в сообщении пользователю, показывается только picture_caption.</t>
+  </si>
+  <si>
+    <t>Например, для ссылки http://www.cbr.ru/, link_name будет "Сайт  Центрального Банка Российской Федерации". Если ссылок несколько, то названия сайтов через точку с запятой для этих ссылок.</t>
+  </si>
+  <si>
+    <t>Если есть, то полная ссылка. Если нет, то ничего. Если несколько, то просто через точку с запятой</t>
+  </si>
+  <si>
+    <t>Если есть документ (например, "Схема работы федерального казначейства"). Если документов несколько, то подписи для них через точку с запятой</t>
+  </si>
+  <si>
+    <t>Если есть, то название документов лучше сделать осмысленным (не номером в отличии от картинок, так как пользователь видит как имя документа, так и подпись к нему). Для названия документа использовать исключительно английские буквы, например, "federalnoe kaznachestvo.pdf". Также в названии не использовать знаков пунктуации кроме точки для отделения формата. Если одному вопросу соответствует несколько документов, то по аналогии с выше перечисленным указать их названия через точку с запятой.</t>
+  </si>
+  <si>
+    <t>Если запрос параметризованный, то в столбце должна быть 1, в ином случае ничего. 
+В самом запросе вместо параметра написать "*". Ответ к вопросу: "параметр1: ответ1; параметр2: ответ2". Используйте пожалуйста именно этот знак "*", а не "____"</t>
+  </si>
+  <si>
+    <t>Если полного ответа нет на вопрос, то смело оставляйте это поле пустым</t>
   </si>
   <si>
     <t>5.1</t>
@@ -89,9 +169,6 @@
   </si>
   <si>
     <t>Какие судебные акты исполняет Минфин России?</t>
-  </si>
-  <si>
-    <t>На Минфин России возложено исполнение судебных актов по искам к Российской Федерации о возмещении вреда, причиненного незаконными действиями (бездействием) государственных органов Российской Федерации или их должностных лиц, в том числе в результате издания государственными органами Российской Федерации актов, не соответствующих закону или иному нормативному правовому акту, а также судебных актов по иным искам о взыскании денежных средств за счет казны Российской Федерации, судебных актов о присуждении компенсации за нарушение права на судопроизводство в разумный срок или права на исполнение судебного акта в разумный срок за счет средств федерального бюджета</t>
   </si>
   <si>
     <t>В соответствии с пунктом 1 статьи 242.2 Бюджетного кодекса Российской Федерации на Минфин России возложено исполнение судебных актов по искам к Российской Федерации о возмещении вреда, причиненного незаконными действиями (бездействием) государственных органов Российской Федерации или их должностных лиц, в том числе в результате издания государственными органами Российской Федерации актов, не соответствующих закону или иному нормативному правовому акту, а также судебных актов по иным искам о взыскании денежных средств за счет казны Российской Федерации (за исключением судебных актов о взыскании денежных средств в порядке субсидиарной ответственности главных распорядителей средств федерального бюджета), судебных актов о присуждении компенсации за нарушение права на судопроизводство в разумный срок или права на исполнение судебного акта в разумный срок за счет средств федерального бюджета.
@@ -218,23 +295,26 @@
     <t>Адрес, направление документов, отправление,  исполнительные документы, направить в Минфин России</t>
   </si>
   <si>
+    <t>Какие, документы, Минфин, направить, предоставить, исполнения, судебного акта</t>
+  </si>
+  <si>
+    <t>Времени требуется, Срок исполнения, исполнение судебного акта, Минфин России</t>
+  </si>
+  <si>
     <t>Cудебный акт, ход исполнения, информация, сеть Интернет, Минфин России</t>
   </si>
   <si>
-    <t>Времени требуется, Срок исполнения, исполнение судебного акта, Минфин России</t>
-  </si>
-  <si>
-    <t>Какие, документы, Минфин, направить, предоставить, исполнения, судебного акта</t>
-  </si>
-  <si>
-    <t>Исполнительные документы направляются в Минфин России по адресу: город Москва, улица Ильинка, дом 9</t>
+    <t>Исполнительные документы направляются в Минфин России по адресу:  город Москва, улица Ильинка, дом девять</t>
+  </si>
+  <si>
+    <t>На Минфин России возложено исполнение судебных актов по искам к Российской Федерации о возмещении вреда, причиненного незаконными действиями (бездействием) государственных органов Российской Федерации или их должностных лиц, в том числе в результате издания государственными органами Российской Федерации актов, не соответствующих закону или иному нормативному правовому акту, а также судебных актов по иным искам о взыскании денежных средств за счет казны Российской Федерации, судебных актов о присуждении компенсации за нарушение пр\+ава на судопроизводство в разумный срок или права на исполнение судебного акта в разумный срок за счет средств федерального бюджета</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,7 +345,30 @@
       <charset val="204"/>
     </font>
     <font>
+      <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -294,12 +397,36 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -314,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -325,6 +452,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -334,19 +482,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -655,27 +809,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="116.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="59.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="68.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" style="15" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
@@ -684,12 +838,15 @@
     <col min="11" max="11" width="19.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="24.140625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="14" width="18.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="81.85546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="18.75">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -700,201 +857,334 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+    </row>
+    <row r="2" spans="1:16" ht="141.75">
+      <c r="A2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="267.75">
+      <c r="A3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="N3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="315">
+      <c r="A4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="157.5">
+      <c r="A5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="6" spans="1:16" ht="346.5">
+      <c r="A6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="110.25">
+      <c r="A7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="94.5">
+      <c r="A8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="31.5">
+      <c r="N9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="47.25">
+      <c r="N10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="94.5">
+      <c r="N11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="O11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="P11" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="31.5">
+      <c r="N12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="110.25">
+      <c r="N13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="315" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="O13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="P13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="78.75">
+      <c r="N14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="O14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="P14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
     <hyperlink ref="G6" r:id="rId2"/>

--- a/data/minfin/5_questions.xlsx
+++ b/data/minfin/5_questions.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>question</t>
   </si>
@@ -31,15 +30,6 @@
     <t>full_answer</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Краткий ответ на вопрос</t>
-  </si>
-  <si>
-    <t>Полный ответ на вопрос</t>
-  </si>
-  <si>
     <t>key_words</t>
   </si>
   <si>
@@ -49,92 +39,22 @@
     <t>picture</t>
   </si>
   <si>
-    <t>Ключевые слова через запятую</t>
-  </si>
-  <si>
-    <t>Ссылка, если есть</t>
-  </si>
-  <si>
-    <t>Название картинки</t>
-  </si>
-  <si>
-    <t>Поле</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Комментарий</t>
-  </si>
-  <si>
-    <t>Как ключевые слова нужно использовать не только те, которые встречаются в вопросе или ответе, но и синонимы для них. Общее правило: чем больше ключевых слов, тем лучше.</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>Порядковый номер вопроса</t>
-  </si>
-  <si>
-    <t>Вопрос от минфина</t>
-  </si>
-  <si>
-    <t>Описание столбцов таблицы</t>
-  </si>
-  <si>
     <t>document</t>
   </si>
   <si>
-    <t>Название документа</t>
-  </si>
-  <si>
     <t>link_name</t>
   </si>
   <si>
-    <t>Название ссылки, если есть ссылка</t>
-  </si>
-  <si>
     <t>parameterized</t>
   </si>
   <si>
-    <t>Параметризованность</t>
-  </si>
-  <si>
     <t>picture_caption</t>
   </si>
   <si>
     <t>document_caption</t>
-  </si>
-  <si>
-    <t>Подпись к картинке</t>
-  </si>
-  <si>
-    <t>Подпись к документу</t>
-  </si>
-  <si>
-    <t>Если есть картинка (например, " Потоки денежный средств между федеральными ведомствами"). Если картинок несколько, то перечислись все подписи через ";".</t>
-  </si>
-  <si>
-    <t>Если есть, то название картинки, включая формат. Картинки лучше называть просто цифрами в соответствии с порядковым номером вопроса. Например, "15.jpg" для 15 вопроса. Если одному вопросу соответствует несколько картинок, то "15_1.jpg; 15_2.jpg" и т.д. Название картинок в формате цифр допустимо, так как их название не отражается в сообщении пользователю, показывается только picture_caption.</t>
-  </si>
-  <si>
-    <t>Например, для ссылки http://www.cbr.ru/, link_name будет "Сайт  Центрального Банка Российской Федерации". Если ссылок несколько, то названия сайтов через точку с запятой для этих ссылок.</t>
-  </si>
-  <si>
-    <t>Если есть, то полная ссылка. Если нет, то ничего. Если несколько, то просто через точку с запятой</t>
-  </si>
-  <si>
-    <t>Если есть документ (например, "Схема работы федерального казначейства"). Если документов несколько, то подписи для них через точку с запятой</t>
-  </si>
-  <si>
-    <t>Если есть, то название документов лучше сделать осмысленным (не номером в отличии от картинок, так как пользователь видит как имя документа, так и подпись к нему). Для названия документа использовать исключительно английские буквы, например, "federalnoe kaznachestvo.pdf". Также в названии не использовать знаков пунктуации кроме точки для отделения формата. Если одному вопросу соответствует несколько документов, то по аналогии с выше перечисленным указать их названия через точку с запятой.</t>
-  </si>
-  <si>
-    <t>Если запрос параметризованный, то в столбце должна быть 1, в ином случае ничего. 
-В самом запросе вместо параметра написать "*". Ответ к вопросу: "параметр1: ответ1; параметр2: ответ2". Используйте пожалуйста именно этот знак "*", а не "____"</t>
-  </si>
-  <si>
-    <t>Если полного ответа нет на вопрос, то смело оставляйте это поле пустым</t>
   </si>
   <si>
     <t>5.1</t>
@@ -313,8 +233,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,30 +265,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -397,30 +294,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -441,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,27 +331,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -482,13 +340,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -497,10 +355,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -809,27 +664,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="61.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="68.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="59.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" style="8" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="19" style="3" customWidth="1"/>
@@ -838,15 +693,12 @@
     <col min="11" max="11" width="19.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="24.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="81.85546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="18.75">
-      <c r="A1" s="11" t="s">
-        <v>16</v>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -857,334 +709,201 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>6</v>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
     </row>
-    <row r="2" spans="1:16" ht="141.75">
-      <c r="A2" s="12" t="s">
+    <row r="5" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>14</v>
+      <c r="C7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="267.75">
-      <c r="A3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="N3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" ht="315">
-      <c r="A4" s="12" t="s">
+      <c r="C8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" ht="157.5">
-      <c r="A5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="346.5">
-      <c r="A6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="110.25">
-      <c r="A7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="94.5">
-      <c r="A8" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="31.5">
-      <c r="N9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="47.25">
-      <c r="N10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="94.5">
-      <c r="N11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="31.5">
-      <c r="N12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="110.25">
-      <c r="N13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="78.75">
-      <c r="N14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="N1:P1"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
     <hyperlink ref="G6" r:id="rId2"/>

--- a/data/minfin/5_questions.xlsx
+++ b/data/minfin/5_questions.xlsx
@@ -212,9 +212,6 @@
     </r>
   </si>
   <si>
-    <t>Адрес, направление документов, отправление,  исполнительные документы, направить в Минфин России</t>
-  </si>
-  <si>
     <t>Какие, документы, Минфин, направить, предоставить, исполнения, судебного акта</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>На Минфин России возложено исполнение судебных актов по искам к Российской Федерации о возмещении вреда, причиненного незаконными действиями (бездействием) государственных органов Российской Федерации или их должностных лиц, в том числе в результате издания государственными органами Российской Федерации актов, не соответствующих закону или иному нормативному правовому акту, а также судебных актов по иным искам о взыскании денежных средств за счет казны Российской Федерации, судебных актов о присуждении компенсации за нарушение пр\+ава на судопроизводство в разумный срок или права на исполнение судебного акта в разумный срок за счет средств федерального бюджета</t>
+  </si>
+  <si>
+    <t>Адрес, направление документов, отправление,  исполнительные документы, направить в Минфин России, Министерство Финансов</t>
   </si>
 </sst>
 </file>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
@@ -813,7 +813,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>32</v>
@@ -842,7 +842,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>38</v>
@@ -871,7 +871,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>43</v>
@@ -888,13 +888,13 @@
         <v>46</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>48</v>
